--- a/YYQERP/ExcelTemplate/送货单模板.xlsx
+++ b/YYQERP/ExcelTemplate/送货单模板.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study2\一月清项目\YYQ\YYQERP\ExcelTemplate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>客户：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +52,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计（大写）：   万   仟   佰   拾   元   角   分   （小写）￥：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -92,6 +93,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（小写）￥：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计（大写）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -102,7 +111,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>昆 山 一 月 清 洁 设 备 有 限 公 司</t>
+      <t xml:space="preserve">           昆 山 一 月 清 洁 设 备 有 限 公 司</t>
     </r>
     <r>
       <rPr>
@@ -126,9 +135,13 @@
         <scheme val="minor"/>
       </rPr>
       <t>地址：昆山市宋家港路299-1号茂轩产业园3幢
-                           电话：0512-57112125  传真：0512-57112145             NO.20170328001
+                           电话：0512-57112125  传真：0512-57112145             
 网址：www.yiyueqingjie.com</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO.20170328001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -299,60 +312,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,6 +435,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -462,7 +537,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +579,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,7 +614,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,7 +826,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -766,164 +841,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11">
+        <v>42822</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="8">
-        <v>42822</v>
-      </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="14" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -947,24 +1026,25 @@
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
+  <mergeCells count="18">
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/YYQERP/ExcelTemplate/送货单模板.xlsx
+++ b/YYQERP/ExcelTemplate/送货单模板.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study2\一月清项目\YYQ\YYQERP\ExcelTemplate\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="20475" windowHeight="9630"/>
   </bookViews>
@@ -148,8 +143,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +373,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,15 +397,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,10 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -469,7 +461,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -513,7 +505,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -579,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,10 +603,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,7 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,14 +812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
@@ -840,40 +830,40 @@
     <col min="9" max="9" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:9" ht="65.099999999999994" customHeight="1">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="9" t="s">
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14">
         <v>42822</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,71 +879,71 @@
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>
@@ -961,9 +951,9 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
@@ -975,9 +965,9 @@
         <v>13</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="2:9" ht="35.1" customHeight="1">
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
@@ -987,55 +977,46 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" ht="24.95" customHeight="1">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:I12"/>
+  <mergeCells count="17">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="B4:C4"/>
@@ -1045,6 +1026,14 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1054,12 +1043,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1067,12 +1056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
